--- a/trend_results/Rivers/HautapuatAlabasters_93c7b0554c.xlsx
+++ b/trend_results/Rivers/HautapuatAlabasters_93c7b0554c.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.100022527254665</v>
+        <v>0.899977472745335</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.875184309094594</v>
+        <v>0.124815690905406</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.424836517644264</v>
+        <v>0.575163482355736</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.9983864243828</v>
+        <v>0.0016135756171999</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2916,46 +2916,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.04320536648685</v>
+        <v>0.427081059959475</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0.403726708074534</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4</v>
+        <v>1.18</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.09237767232580719</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.171506786541965</v>
+        <v>-0.0257495148093476</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0406443304520465</v>
+        <v>0.0214152962604822</v>
       </c>
       <c r="N28" t="n">
-        <v>-23.0944180814518</v>
+        <v>0</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2993,7 +2993,11 @@
           <t>Rang_2f</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3003,14 +3007,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3018,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.231216363225238</v>
+        <v>0.103078134643314</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0.8114285714285711</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>95.17</v>
+        <v>10.55</v>
       </c>
       <c r="K29" t="n">
-        <v>-4.29275444515487</v>
+        <v>-0.0185717700980588</v>
       </c>
       <c r="L29" t="n">
-        <v>-15.4541512293949</v>
+        <v>-0.0447462863454446</v>
       </c>
       <c r="M29" t="n">
-        <v>2.27498152124959</v>
+        <v>0.0029944929131546</v>
       </c>
       <c r="N29" t="n">
-        <v>-4.51061725875262</v>
+        <v>-0.176035735526624</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3051,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3080,7 +3084,11 @@
           <t>Rang_2f</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3090,11 +3098,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3105,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.04320536648685</v>
+        <v>1.146058462733e-11</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.290502793296089</v>
       </c>
       <c r="H30" t="n">
+        <v>0.111731843575419</v>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>5.15</v>
+        <v>0.007</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.9780417859173151</v>
+        <v>0.0005435267857142</v>
       </c>
       <c r="L30" t="n">
-        <v>-2.08589563249831</v>
+        <v>0.0003794805194805</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.429424442387179</v>
+        <v>0.0006970432599291</v>
       </c>
       <c r="N30" t="n">
-        <v>-18.9911026391712</v>
+        <v>7.76466836734694</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3138,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3167,7 +3175,11 @@
           <t>Rang_2f</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3177,11 +3189,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3192,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.07620314197837499</v>
+        <v>0.977188420832492</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0055865921787709</v>
       </c>
       <c r="H31" t="n">
+        <v>0.642458100558659</v>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>0.445</v>
+        <v>110</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0194494909945184</v>
+        <v>-3.10355815188529</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0457774242932094</v>
+        <v>-5.9653996966059</v>
       </c>
       <c r="M31" t="n">
-        <v>3.71568440801582e-05</v>
+        <v>-0.382905034594274</v>
       </c>
       <c r="N31" t="n">
-        <v>-4.37067213359964</v>
+        <v>-2.8214165017139</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3254,7 +3266,11 @@
           <t>Rang_2f</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3264,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.063424647007573</v>
+        <v>0.885540510723154</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.767441860465116</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9</v>
+        <v>0.377906976744186</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J32" t="n">
-        <v>98.39</v>
+        <v>0.005</v>
       </c>
       <c r="K32" t="n">
-        <v>-1.28835978835979</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-2.79842285190581</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.106895978249019</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-1.30944180136171</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3312,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3341,7 +3357,11 @@
           <t>Rang_2f</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3351,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.105248850027669</v>
+        <v>0.563749367404112</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.515923566878981</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0.0764331210191083</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>5.36</v>
+        <v>0.002</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.143461248285322</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.404016276126514</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0141895633531168</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-2.6765158262187</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3399,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3428,7 +3448,1162 @@
           <t>Rang_2f</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.976956630995973</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.51875</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.01665</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0006005354874734</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.594561669172341</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0011306631129463</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.0084892079028062</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0115729146148466</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.0138731670300166</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>As likely as not increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.955590020651112</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.106145251396648</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.5474860335195531</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.0003646121335024</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0006710031268911</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-4.01341773165889e-05</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-1.21537377834136</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.718182425910573</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.5027932960893849</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.001003434065934</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0033446869084967</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0010039101587725</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.418097527472528</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.142646120748919</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0111731843575419</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.324022346368715</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0001999178981937</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0001429549902152</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0005017170329669999</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.832991242474002</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.877094972067039</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.047239421210581</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0562067518346393</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.04320536648685</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.09237767232580719</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.171506786541965</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.0406443304520465</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-23.0944180814518</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>95.17</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-4.29275444515487</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-15.4541512293949</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2.27498152124959</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-4.51061725875262</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.04320536648685</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.9780417859173151</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-2.08589563249831</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.429424442387179</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-18.9911026391712</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.07620314197837499</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.0194494909945184</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0457774242932094</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3.71568440801582e-05</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-4.37067213359964</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>10</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.063424647007573</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>98.39</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-1.28835978835979</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-2.79842285190581</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.106895978249019</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-1.30944180136171</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.105248850027669</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.143461248285322</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.404016276126514</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0141895633531168</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-2.6765158262187</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Hautapu at Alabasters</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>15</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.228120912954489</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>99</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.511196641007698</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-1.1966674515784</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.459281356633015</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.5163602434421189</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1838919.773</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5606540.511</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Rang_2f</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/HautapuatAlabasters_93c7b0554c.xlsx
+++ b/trend_results/Rivers/HautapuatAlabasters_93c7b0554c.xlsx
@@ -565,7 +565,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -573,13 +573,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.981007932768681</v>
+        <v>0.852277932987617</v>
       </c>
       <c r="G2" t="n">
-        <v>0.037037037037037</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="H2" t="n">
-        <v>0.592592592592593</v>
+        <v>0.702127659574468</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
@@ -588,16 +588,16 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.207376373626374</v>
+        <v>0.0802747252747253</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0448394563755936</v>
+        <v>-0.0523231285224855</v>
       </c>
       <c r="M2" t="n">
-        <v>0.335993789839678</v>
+        <v>0.264774523478893</v>
       </c>
       <c r="N2" t="n">
-        <v>20.7376373626374</v>
+        <v>8.027472527472529</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.899977472745335</v>
+        <v>0.756273354817983</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.912280701754386</v>
+        <v>0.946428571428571</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.69</v>
+        <v>10.635</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0628803006476842</v>
+        <v>0.0366860607545316</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0171792302361026</v>
+        <v>-0.076989129369005</v>
       </c>
       <c r="M3" t="n">
-        <v>0.158905358360444</v>
+        <v>0.09457633462094429</v>
       </c>
       <c r="N3" t="n">
-        <v>0.588216095862341</v>
+        <v>0.344955907423898</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -751,35 +751,35 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.502623655196103</v>
+        <v>0.1255827988736</v>
       </c>
       <c r="G4" t="n">
-        <v>0.152542372881356</v>
+        <v>0.155172413793103</v>
       </c>
       <c r="H4" t="n">
-        <v>0.288135593220339</v>
+        <v>0.310344827586207</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01</v>
+        <v>0.0095</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.0003727040816326</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0008459611062997001</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0007659457058187</v>
+        <v>0.001602775845042</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.92320085929109</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -842,35 +842,35 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.674242820877223</v>
+        <v>0.454567050245119</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0169491525423729</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6610169491525421</v>
+        <v>0.672413793103448</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>92</v>
+        <v>107.5</v>
       </c>
       <c r="K5" t="n">
-        <v>-2.58675637393768</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>-16.9128078328518</v>
+        <v>-12.0011529627781</v>
       </c>
       <c r="M5" t="n">
-        <v>9.433942445833591</v>
+        <v>15.090888690892</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.81169171080182</v>
+        <v>0</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.5484794207254819</v>
+        <v>0.624569652565211</v>
       </c>
       <c r="G6" t="n">
-        <v>0.814814814814815</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="H6" t="n">
-        <v>0.407407407407407</v>
+        <v>0.351851851851852</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
         <v>0.005</v>
@@ -1028,13 +1028,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.612650499715183</v>
+        <v>0.997216308580948</v>
       </c>
       <c r="G7" t="n">
-        <v>0.559322033898305</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0847457627118644</v>
+        <v>0.0862068965517241</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-0.0002772180332465</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1115,35 +1115,35 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.993094974085218</v>
+        <v>0.575073333001866</v>
       </c>
       <c r="G8" t="n">
-        <v>0.440677966101695</v>
+        <v>0.413793103448276</v>
       </c>
       <c r="H8" t="n">
-        <v>0.542372881355932</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.016</v>
+        <v>0.0155</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0029283892128279</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0130446428571429</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-18.3024325801749</v>
+        <v>0</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,13 +1210,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.124815690905406</v>
+        <v>0.554773210208552</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.796610169491525</v>
+        <v>0.771929824561403</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1225,16 +1225,16 @@
         <v>8.130000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0399180327868854</v>
+        <v>0.004212223376027</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0929331066597652</v>
+        <v>-0.0534905253023734</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0112504287015712</v>
+        <v>0.0458685490803281</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.490996713245823</v>
+        <v>0.0518108656337891</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.968796290715647</v>
+        <v>0.204832058032631</v>
       </c>
       <c r="G10" t="n">
-        <v>0.101694915254237</v>
+        <v>0.0862068965517241</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6949152542372879</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>0.025</v>
+        <v>0.0245</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0033447802197802</v>
+        <v>0.0023328244208021</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0081457122190802</v>
+        <v>-0.0017119948175452</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.00045471509593</v>
+        <v>0.0049460282415326</v>
       </c>
       <c r="N10" t="n">
-        <v>-13.3791208791209</v>
+        <v>9.52173232980461</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.972585400079662</v>
+        <v>0.147686089665652</v>
       </c>
       <c r="G11" t="n">
-        <v>0.152542372881356</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.372881355932203</v>
+        <v>0.586206896551724</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>0.26</v>
       </c>
       <c r="K11" t="n">
-        <v>-1.00343406593407</v>
+        <v>0.0100343406593406</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.74206255948212</v>
+        <v>-0.0050227240744146</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.0324581583063662</v>
       </c>
       <c r="N11" t="n">
-        <v>-16.7239010989011</v>
+        <v>3.85936179205409</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.938531413909082</v>
+        <v>0.0142970672708085</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.593220338983051</v>
+        <v>0.586206896551724</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.24</v>
+        <v>0.0265</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0100343406593406</v>
+        <v>0.0022935635792778</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0259591703855983</v>
+        <v>0.000668956043956</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.0040137362637362</v>
       </c>
       <c r="N12" t="n">
-        <v>-4.18097527472527</v>
+        <v>8.654956902935339</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.652793576401374</v>
+        <v>0.831287008524298</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.508474576271186</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.025</v>
+        <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0003727040816326</v>
+        <v>-0.228804430863254</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.00201041925138</v>
+        <v>-0.7029469896799621</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0013302574010333</v>
+        <v>0.183346062820446</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.49081632653061</v>
+        <v>-6.9334676019168</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.964401555362374</v>
+        <v>0.135619103345512</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0388349514563107</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0.5339805825242721</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.359578102303382</v>
+        <v>-0.0308884575887371</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.840610290535755</v>
+        <v>-0.0748974709501025</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.0835672207383904</v>
+        <v>0.0127957717400577</v>
       </c>
       <c r="N14" t="n">
-        <v>-10.5758265383348</v>
+        <v>-2.8080415989761</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.0460516502552361</v>
+        <v>0.984623963296394</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0363636363636364</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.472727272727273</v>
+        <v>0.860869565217391</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.2</v>
+        <v>10.44</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0494594724682326</v>
+        <v>0.0332878495408256</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0940448867098562</v>
+        <v>0.0065909728377841</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.0601754877724494</v>
       </c>
       <c r="N15" t="n">
-        <v>-4.12162270568605</v>
+        <v>0.318849133532812</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.717112103663251</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.09322033898305079</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.186440677966102</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.575163482355736</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.862068965517241</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>10.58</v>
+        <v>0.01</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0026739352106048</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0262758184011104</v>
+        <v>-0.0003377253814147</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0332744889434426</v>
+        <v>0.0001097847811478</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0252734897032592</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,43 +1919,43 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.35437610672735</v>
+        <v>0.489426813229313</v>
       </c>
       <c r="G17" t="n">
-        <v>0.100840336134454</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H17" t="n">
-        <v>0.168067226890756</v>
+        <v>0.567796610169492</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01</v>
+        <v>97</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0001423469028403</v>
+        <v>-3.67598552154747</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0003096020771393</v>
+        <v>4.41405613575678</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2021,32 +2021,32 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.469781334484711</v>
+        <v>0.323741925419765</v>
       </c>
       <c r="G18" t="n">
-        <v>0.008403361344537799</v>
+        <v>0.8378378378378381</v>
       </c>
       <c r="H18" t="n">
-        <v>0.613445378151261</v>
+        <v>0.342342342342342</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="J18" t="n">
-        <v>96</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-3.49891577956401</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>4.89172307588154</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2116,19 +2116,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.450776862747253</v>
+        <v>0.916229876663704</v>
       </c>
       <c r="G19" t="n">
-        <v>0.849557522123894</v>
+        <v>0.491525423728814</v>
       </c>
       <c r="H19" t="n">
-        <v>0.336283185840708</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="I19" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2207,19 +2207,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.942339593107593</v>
+        <v>0.22989791152166</v>
       </c>
       <c r="G20" t="n">
-        <v>0.420168067226891</v>
+        <v>0.415254237288136</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0840336134453782</v>
+        <v>0.533898305084746</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.002</v>
+        <v>0.015</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2294,35 +2294,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.448891567258152</v>
+        <v>0.091874701399269</v>
       </c>
       <c r="G21" t="n">
-        <v>0.453781512605042</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.504201680672269</v>
+        <v>0.646551724137931</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0127</v>
+        <v>8.154999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>-0.0138523693943597</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0315986106596545</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.0028275967967924</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>-0.169863511886692</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Rang_2f</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.0016135756171999</v>
+        <v>0.0835506804250756</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.110169491525424</v>
       </c>
       <c r="H22" t="n">
-        <v>0.610169491525424</v>
+        <v>0.6610169491525421</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>8.16</v>
+        <v>0.0245</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0274624060150377</v>
+        <v>0.000592061540179</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0448671903785182</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.0113079219634869</v>
+        <v>0.0018842609607743</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.336549093321541</v>
+        <v>2.41657771501667</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Rang_2f</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0359904713071319</v>
+        <v>0.0968493448546662</v>
       </c>
       <c r="G23" t="n">
-        <v>0.100840336134454</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.554621848739496</v>
+        <v>0.5169491525423729</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.019</v>
+        <v>0.255</v>
       </c>
       <c r="K23" t="n">
-        <v>0.000748974709501</v>
+        <v>0.0033234758871701</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-0.0012521681264938</v>
       </c>
       <c r="M23" t="n">
-        <v>0.001497949419002</v>
+        <v>0.0080026256637852</v>
       </c>
       <c r="N23" t="n">
-        <v>3.94197215526855</v>
+        <v>1.30332387732163</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2563,35 +2563,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.253626894566028</v>
+        <v>0.0008863200508279</v>
       </c>
       <c r="G24" t="n">
-        <v>0.092436974789916</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.260504201680672</v>
+        <v>0.372881355932203</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>0.024</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.0010004565689026</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0292960784209225</v>
+        <v>0.0005526396367003</v>
       </c>
       <c r="M24" t="n">
-        <v>0.334478021978022</v>
+        <v>0.0014908163265306</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>4.16856903709447</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.172751369863037</v>
+        <v>0.019675634709264</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.579831932773109</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.24</v>
+        <v>3.37</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0017476076555023</v>
+        <v>0.156526247926602</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0019983045253404</v>
+        <v>0.0381204375229985</v>
       </c>
       <c r="M25" t="n">
-        <v>0.004969387755102</v>
+        <v>0.26191151571556</v>
       </c>
       <c r="N25" t="n">
-        <v>0.728169856459329</v>
+        <v>4.64469578417216</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,46 +2734,46 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0029639085872798</v>
+        <v>0.382541248567223</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0451612903225806</v>
       </c>
       <c r="H26" t="n">
-        <v>0.34453781512605</v>
+        <v>0.406451612903226</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>0.023</v>
+        <v>1.1</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0008335235052487001</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.000493085801098</v>
+        <v>-0.0333054711246201</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0011609027409328</v>
+        <v>0.0200686813186813</v>
       </c>
       <c r="N26" t="n">
-        <v>3.62401524021193</v>
+        <v>0</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.0472527142157606</v>
+        <v>0.694749114266314</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.882352941176471</v>
+        <v>0.804597701149425</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>3.28</v>
+        <v>10.48</v>
       </c>
       <c r="K27" t="n">
-        <v>0.106359198355601</v>
+        <v>0.0055509118541032</v>
       </c>
       <c r="L27" t="n">
-        <v>8.015168641223259e-05</v>
+        <v>-0.0168871764441669</v>
       </c>
       <c r="M27" t="n">
-        <v>0.193559388932283</v>
+        <v>0.0231043952406029</v>
       </c>
       <c r="N27" t="n">
-        <v>3.24265848645126</v>
+        <v>0.0529667161651071</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,46 +2916,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>15</v>
       </c>
       <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>8.351449746309631e-09</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.235955056179775</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.123595505617978</v>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>0.427081059959475</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.0434782608695652</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.403726708074534</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3</v>
-      </c>
       <c r="J28" t="n">
-        <v>1.18</v>
+        <v>0.008</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.0004530031892274</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0257495148093476</v>
+        <v>0.0003136228588685</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0214152962604822</v>
+        <v>0.0006158630301148</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>5.66253986534373</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,46 +3007,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.911503763080266</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0056179775280898</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.640449438202247</v>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>0.103078134643314</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.8114285714285711</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>10.55</v>
+        <v>103.5</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0185717700980588</v>
+        <v>-2.0792220113852</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0447462863454446</v>
+        <v>-4.96938775510204</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0029944929131546</v>
+        <v>0.364325125387408</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.176035735526624</v>
+        <v>-2.00891015592773</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3109,35 +3109,35 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.146058462733e-11</v>
+        <v>0.95264094434209</v>
       </c>
       <c r="G30" t="n">
-        <v>0.290502793296089</v>
+        <v>0.752941176470588</v>
       </c>
       <c r="H30" t="n">
-        <v>0.111731843575419</v>
+        <v>0.370588235294118</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="J30" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0005435267857142</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0003794805194805</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0006970432599291</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>7.76466836734694</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3200,35 +3200,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.977188420832492</v>
+        <v>0.766615068736515</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0055865921787709</v>
+        <v>0.529761904761905</v>
       </c>
       <c r="H31" t="n">
-        <v>0.642458100558659</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>110</v>
+        <v>0.001</v>
       </c>
       <c r="K31" t="n">
-        <v>-3.10355815188529</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-5.9653996966059</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.382905034594274</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-2.8214165017139</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3295,19 +3295,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.885540510723154</v>
+        <v>0.706576553163763</v>
       </c>
       <c r="G32" t="n">
-        <v>0.767441860465116</v>
+        <v>0.392857142857143</v>
       </c>
       <c r="H32" t="n">
-        <v>0.377906976744186</v>
+        <v>0.505952380952381</v>
       </c>
       <c r="I32" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005</v>
+        <v>0.01665</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3371,43 +3371,43 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.563749367404112</v>
+        <v>0.558471686977464</v>
       </c>
       <c r="G33" t="n">
-        <v>0.515923566878981</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0764331210191083</v>
+        <v>0.5344827586206899</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.002</v>
+        <v>8.16</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-0.0088262652768255</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.0106733653524793</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Rang_2f</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,14 +3458,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3477,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.976956630995973</v>
+        <v>0.773633513879147</v>
       </c>
       <c r="G34" t="n">
-        <v>0.40625</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="H34" t="n">
-        <v>0.51875</v>
+        <v>0.668539325842697</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>0.01665</v>
+        <v>0.03035</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-0.0001874703412264</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0006005354874734</v>
+        <v>-0.0005017170329669999</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.0001590335670249</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>-0.617694699263572</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,46 +3549,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.594561669172341</v>
+        <v>0.5</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.545454545454545</v>
+        <v>0.51123595505618</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>8.15</v>
+        <v>0.26</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0011306631129463</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0084892079028062</v>
+        <v>-0.0033234758871701</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0115729146148466</v>
+        <v>0.0021640608063539</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0138731670300166</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Rang_2f</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.955590020651112</v>
+        <v>0.0652240300780326</v>
       </c>
       <c r="G36" t="n">
-        <v>0.106145251396648</v>
+        <v>0.0112359550561798</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5474860335195531</v>
+        <v>0.331460674157303</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0.03</v>
+        <v>0.024</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0003646121335024</v>
+        <v>0.0003880617855563</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0006710031268911</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>-4.01341773165889e-05</v>
+        <v>0.000748974709501</v>
       </c>
       <c r="N36" t="n">
-        <v>-1.21537377834136</v>
+        <v>1.61692410648499</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3742,35 +3742,35 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.718182425910573</v>
+        <v>0.494208081152578</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5027932960893849</v>
+        <v>0.8764044943820229</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.24</v>
+        <v>3.41</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.001003434065934</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0033446869084967</v>
+        <v>-0.0571564882093141</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0010039101587725</v>
+        <v>0.079286758088672</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.418097527472528</v>
+        <v>0</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3822,46 +3822,46 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.110335680959923</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.142646120748919</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.0111731843575419</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.324022346368715</v>
-      </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.024</v>
+        <v>0.315</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0001999178981937</v>
+        <v>-0.0511636250249799</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0001429549902152</v>
+        <v>-0.171506786541965</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0005017170329669999</v>
+        <v>0.0161472613969129</v>
       </c>
       <c r="N38" t="n">
-        <v>0.832991242474002</v>
+        <v>-16.2424206428508</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3899,11 +3899,7 @@
           <t>Rang_2f</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,46 +3909,46 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
         <v>1</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.877094972067039</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>3.28</v>
+        <v>94.44</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>-3.3875764238483</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.047239421210581</v>
+        <v>-15.4541512293949</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0562067518346393</v>
+        <v>1.96010518163611</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>-3.58701442593001</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3957,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3990,11 +3986,7 @@
           <t>Rang_2f</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4004,7 +3996,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4019,7 +4011,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.04320536648685</v>
+        <v>0.110335680959923</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -4031,19 +4023,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4</v>
+        <v>4.189</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.09237767232580719</v>
+        <v>-0.489824384349182</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.171506786541965</v>
+        <v>-1.66757758492705</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.0406443304520465</v>
+        <v>0.081564294713283</v>
       </c>
       <c r="N40" t="n">
-        <v>-23.0944180814518</v>
+        <v>-11.6931101539552</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4044,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4091,11 +4083,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -4106,7 +4098,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.231216363225238</v>
+        <v>0.024548990804633</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -4118,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>95.17</v>
+        <v>0.4325</v>
       </c>
       <c r="K41" t="n">
-        <v>-4.29275444515487</v>
+        <v>-0.0275844069302532</v>
       </c>
       <c r="L41" t="n">
-        <v>-15.4541512293949</v>
+        <v>-0.0518810291794004</v>
       </c>
       <c r="M41" t="n">
-        <v>2.27498152124959</v>
+        <v>-0.0108653879099241</v>
       </c>
       <c r="N41" t="n">
-        <v>-4.51061725875262</v>
+        <v>-6.37789755612791</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4139,7 +4131,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4178,11 +4170,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -4193,31 +4185,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.04320536648685</v>
+        <v>0.0439807371540401</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>5.15</v>
+        <v>96.47499999999999</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.9780417859173151</v>
+        <v>-1.21191513761468</v>
       </c>
       <c r="L42" t="n">
-        <v>-2.08589563249831</v>
+        <v>-2.81105853751569</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.429424442387179</v>
+        <v>-0.100459670903761</v>
       </c>
       <c r="N42" t="n">
-        <v>-18.9911026391712</v>
+        <v>-1.25619604831789</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4265,7 +4257,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4280,7 +4272,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.07620314197837499</v>
+        <v>0.036819135060151</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4292,19 +4284,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.445</v>
+        <v>5.099</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0194494909945184</v>
+        <v>-0.170311253561253</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0457774242932094</v>
+        <v>-0.451221741751463</v>
       </c>
       <c r="M43" t="n">
-        <v>3.71568440801582e-05</v>
+        <v>-0.0469799900330457</v>
       </c>
       <c r="N43" t="n">
-        <v>-4.37067213359964</v>
+        <v>-3.34009126419403</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4313,7 +4305,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4352,11 +4344,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4367,31 +4359,31 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.063424647007573</v>
+        <v>0.330707958503932</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>98.39</v>
+        <v>0.4195</v>
       </c>
       <c r="K44" t="n">
-        <v>-1.28835978835979</v>
+        <v>-0.0052437879624516</v>
       </c>
       <c r="L44" t="n">
-        <v>-2.79842285190581</v>
+        <v>-0.0198699171924116</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.106895978249019</v>
+        <v>0.0101270206610085</v>
       </c>
       <c r="N44" t="n">
-        <v>-1.30944180136171</v>
+        <v>-1.25000904945213</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4400,7 +4392,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4439,11 +4431,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4454,31 +4446,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.105248850027669</v>
+        <v>0.327426818596892</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>5.36</v>
+        <v>97.78</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.143461248285322</v>
+        <v>-0.312705263157894</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.404016276126514</v>
+        <v>-0.927667946925387</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0141895633531168</v>
+        <v>0.50530701283104</v>
       </c>
       <c r="N45" t="n">
-        <v>-2.6765158262187</v>
+        <v>-0.319804932663013</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4526,7 +4518,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4541,31 +4533,31 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.228120912954489</v>
+        <v>0.5</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>99</v>
+        <v>4.864</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.511196641007698</v>
+        <v>-0.0050588642659278</v>
       </c>
       <c r="L46" t="n">
-        <v>-1.1966674515784</v>
+        <v>-0.149219085744869</v>
       </c>
       <c r="M46" t="n">
-        <v>0.459281356633015</v>
+        <v>0.144524479018946</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.5163602434421189</v>
+        <v>-0.104006255467267</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4574,7 +4566,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q46" t="n">

--- a/trend_results/Rivers/HautapuatAlabasters_93c7b0554c.xlsx
+++ b/trend_results/Rivers/HautapuatAlabasters_93c7b0554c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="67">
   <si>
     <t>site name</t>
   </si>
@@ -136,52 +136,58 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope influenced by censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
     <t>Likely improving</t>
   </si>
   <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
     <t>Likely increasing</t>
   </si>
   <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
-  </si>
-  <si>
     <t>Very likely improving</t>
   </si>
   <si>
-    <t>Very unlikely increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
     <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely increasing</t>
   </si>
   <si>
     <t>Rangitikei District</t>
@@ -566,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:W57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,31 +666,31 @@
         <v>39</v>
       </c>
       <c r="F2">
-        <v>0.852277932987617</v>
+        <v>0.175532397430838</v>
       </c>
       <c r="G2">
-        <v>0.0425531914893617</v>
+        <v>0.025</v>
       </c>
       <c r="H2">
-        <v>0.702127659574468</v>
+        <v>0.825</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="K2">
-        <v>0.0802747252747253</v>
+        <v>-0.06682474946014171</v>
       </c>
       <c r="L2">
-        <v>-0.0523231285224855</v>
+        <v>-0.195935133045122</v>
       </c>
       <c r="M2">
-        <v>0.264774523478893</v>
+        <v>0.0406615657246727</v>
       </c>
       <c r="N2">
-        <v>8.027472527472529</v>
+        <v>-10.2807306861757</v>
       </c>
       <c r="O2" t="s">
         <v>42</v>
@@ -699,19 +705,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -731,31 +737,31 @@
         <v>39</v>
       </c>
       <c r="F3">
-        <v>0.756273354817983</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.946428571428571</v>
+        <v>0.964285714285714</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.635</v>
+        <v>10.71</v>
       </c>
       <c r="K3">
-        <v>0.0366860607545316</v>
+        <v>-0.0090786891679748</v>
       </c>
       <c r="L3">
-        <v>-0.076989129369005</v>
+        <v>-0.103403771657956</v>
       </c>
       <c r="M3">
-        <v>0.09457633462094429</v>
+        <v>0.070138082150904</v>
       </c>
       <c r="N3">
-        <v>0.344955907423898</v>
+        <v>-0.08476833957025991</v>
       </c>
       <c r="O3" t="s">
         <v>42</v>
@@ -770,19 +776,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -802,31 +808,31 @@
         <v>39</v>
       </c>
       <c r="F4">
-        <v>0.1255827988736</v>
+        <v>0.0003392191339218</v>
       </c>
       <c r="G4">
-        <v>0.155172413793103</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.310344827586207</v>
+        <v>0.344827586206897</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0095</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="K4">
-        <v>0.0003727040816326</v>
+        <v>0.0011949291166848</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.000664695177434</v>
       </c>
       <c r="M4">
-        <v>0.001602775845042</v>
+        <v>0.0017992610837438</v>
       </c>
       <c r="N4">
-        <v>3.92320085929109</v>
+        <v>14.057989608057</v>
       </c>
       <c r="O4" t="s">
         <v>42</v>
@@ -841,19 +847,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -870,34 +876,34 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5">
-        <v>0.454567050245119</v>
+        <v>0.386461434624055</v>
       </c>
       <c r="G5">
         <v>0.0172413793103448</v>
       </c>
       <c r="H5">
-        <v>0.672413793103448</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>107.5</v>
+        <v>107.4</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2.49211087420043</v>
       </c>
       <c r="L5">
-        <v>-12.0011529627781</v>
+        <v>-12.0103666794108</v>
       </c>
       <c r="M5">
-        <v>15.090888690892</v>
+        <v>16.5234870651609</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>2.32040118640636</v>
       </c>
       <c r="O5" t="s">
         <v>42</v>
@@ -912,19 +918,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -941,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6">
-        <v>0.624569652565211</v>
+        <v>0.278427115312486</v>
       </c>
       <c r="G6">
-        <v>0.777777777777778</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="H6">
-        <v>0.351851851851852</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0.005</v>
@@ -974,7 +980,7 @@
         <v>42</v>
       </c>
       <c r="P6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q6">
         <v>1838919.773</v>
@@ -983,19 +989,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1012,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7">
-        <v>0.997216308580948</v>
+        <v>0.9967623431386819</v>
       </c>
       <c r="G7">
-        <v>0.551724137931034</v>
+        <v>0.706896551724138</v>
       </c>
       <c r="H7">
         <v>0.0862068965517241</v>
@@ -1033,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>-0.0002772180332465</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1054,19 +1060,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1083,22 +1089,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>0.575073333001866</v>
+        <v>0.447536750957472</v>
       </c>
       <c r="G8">
-        <v>0.413793103448276</v>
+        <v>0.379310344827586</v>
       </c>
       <c r="H8">
-        <v>0.551724137931034</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.0155</v>
+        <v>0.018</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1107,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.0016165629921955</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1125,19 +1131,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1157,7 +1163,7 @@
         <v>39</v>
       </c>
       <c r="F9">
-        <v>0.554773210208552</v>
+        <v>0.241207241930041</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1169,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.130000000000001</v>
+        <v>8.06</v>
       </c>
       <c r="K9">
-        <v>0.004212223376027</v>
+        <v>-0.020784340173413</v>
       </c>
       <c r="L9">
-        <v>-0.0534905253023734</v>
+        <v>-0.07764932814639321</v>
       </c>
       <c r="M9">
-        <v>0.0458685490803281</v>
+        <v>0.029791980951837</v>
       </c>
       <c r="N9">
-        <v>0.0518108656337891</v>
+        <v>-0.257870225476588</v>
       </c>
       <c r="O9" t="s">
         <v>42</v>
@@ -1196,16 +1202,16 @@
         <v>5606540.511</v>
       </c>
       <c r="S9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1225,37 +1231,37 @@
         <v>39</v>
       </c>
       <c r="F10">
-        <v>0.204832058032631</v>
+        <v>0.0132888816825081</v>
       </c>
       <c r="G10">
-        <v>0.0862068965517241</v>
+        <v>0.0344827586206897</v>
       </c>
       <c r="H10">
-        <v>0.758620689655172</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>0.0245</v>
+        <v>0.026</v>
       </c>
       <c r="K10">
-        <v>0.0023328244208021</v>
+        <v>0.0049181051830335</v>
       </c>
       <c r="L10">
-        <v>-0.0017119948175452</v>
+        <v>0.0020068681318681</v>
       </c>
       <c r="M10">
-        <v>0.0049460282415326</v>
+        <v>0.0103726008680777</v>
       </c>
       <c r="N10">
-        <v>9.52173232980461</v>
+        <v>18.9157891655136</v>
       </c>
       <c r="O10" t="s">
         <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q10">
         <v>1838919.773</v>
@@ -1264,19 +1270,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1296,7 +1302,7 @@
         <v>39</v>
       </c>
       <c r="F11">
-        <v>0.147686089665652</v>
+        <v>0.0432350977042652</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1311,22 +1317,22 @@
         <v>0.26</v>
       </c>
       <c r="K11">
-        <v>0.0100343406593406</v>
+        <v>0.0137612100070982</v>
       </c>
       <c r="L11">
-        <v>-0.0050227240744146</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.0324581583063662</v>
+        <v>0.03690635032938</v>
       </c>
       <c r="N11">
-        <v>3.85936179205409</v>
+        <v>5.29277307965314</v>
       </c>
       <c r="O11" t="s">
         <v>42</v>
       </c>
       <c r="P11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q11">
         <v>1838919.773</v>
@@ -1335,19 +1341,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1367,7 +1373,7 @@
         <v>39</v>
       </c>
       <c r="F12">
-        <v>0.0142970672708085</v>
+        <v>0.0513901358633548</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1379,25 +1385,25 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0265</v>
+        <v>0.026</v>
       </c>
       <c r="K12">
-        <v>0.0022935635792778</v>
+        <v>0.0020068681318681</v>
       </c>
       <c r="L12">
-        <v>0.000668956043956</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.0040137362637362</v>
+        <v>0.0042645580660901</v>
       </c>
       <c r="N12">
-        <v>8.654956902935339</v>
+        <v>7.71872358410819</v>
       </c>
       <c r="O12" t="s">
         <v>42</v>
       </c>
       <c r="P12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q12">
         <v>1838919.773</v>
@@ -1406,19 +1412,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1438,13 +1444,13 @@
         <v>39</v>
       </c>
       <c r="F13">
-        <v>0.831287008524298</v>
+        <v>0.636391892385018</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.982758620689655</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1453,22 +1459,22 @@
         <v>3.3</v>
       </c>
       <c r="K13">
-        <v>-0.228804430863254</v>
+        <v>-0.0695714285714286</v>
       </c>
       <c r="L13">
-        <v>-0.7029469896799621</v>
+        <v>-0.537480335563948</v>
       </c>
       <c r="M13">
-        <v>0.183346062820446</v>
+        <v>0.334074633867197</v>
       </c>
       <c r="N13">
-        <v>-6.9334676019168</v>
+        <v>-2.10822510822511</v>
       </c>
       <c r="O13" t="s">
         <v>42</v>
       </c>
       <c r="P13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q13">
         <v>1838919.773</v>
@@ -1477,19 +1483,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1506,40 +1512,40 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14">
-        <v>0.135619103345512</v>
+        <v>0.025496032506122</v>
       </c>
       <c r="G14">
-        <v>0.0388349514563107</v>
+        <v>0.0408163265306122</v>
       </c>
       <c r="H14">
-        <v>0.5339805825242721</v>
+        <v>0.551020408163265</v>
       </c>
       <c r="I14">
         <v>3</v>
       </c>
       <c r="J14">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>-0.0308884575887371</v>
+        <v>-0.039983579638752</v>
       </c>
       <c r="L14">
-        <v>-0.0748974709501025</v>
+        <v>-0.08958030075543021</v>
       </c>
       <c r="M14">
-        <v>0.0127957717400577</v>
+        <v>-0.0101918561222532</v>
       </c>
       <c r="N14">
-        <v>-2.8080415989761</v>
+        <v>-3.9983579638752</v>
       </c>
       <c r="O14" t="s">
         <v>42</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q14">
         <v>1838919.773</v>
@@ -1548,19 +1554,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1580,37 +1586,37 @@
         <v>39</v>
       </c>
       <c r="F15">
-        <v>0.984623963296394</v>
+        <v>0.985795503149542</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.860869565217391</v>
+        <v>0.879310344827586</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.44</v>
+        <v>10.48</v>
       </c>
       <c r="K15">
-        <v>0.0332878495408256</v>
+        <v>0.0357971029909466</v>
       </c>
       <c r="L15">
-        <v>0.0065909728377841</v>
+        <v>0.010034340659341</v>
       </c>
       <c r="M15">
-        <v>0.0601754877724494</v>
+        <v>0.0598333605027616</v>
       </c>
       <c r="N15">
-        <v>0.318849133532812</v>
+        <v>0.341575410218956</v>
       </c>
       <c r="O15" t="s">
         <v>42</v>
       </c>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q15">
         <v>1838919.773</v>
@@ -1619,19 +1625,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1648,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16">
-        <v>0.717112103663251</v>
+        <v>0.731119986896852</v>
       </c>
       <c r="G16">
         <v>0.09322033898305079</v>
@@ -1669,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>-0.0003377253814147</v>
+        <v>-0.0003292023433979</v>
       </c>
       <c r="M16">
-        <v>0.0001097847811478</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1681,7 +1687,7 @@
         <v>42</v>
       </c>
       <c r="P16" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="Q16">
         <v>1838919.773</v>
@@ -1690,19 +1696,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1719,31 +1725,31 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17">
-        <v>0.489426813229313</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
         <v>0.008474576271186401</v>
       </c>
       <c r="H17">
-        <v>0.567796610169492</v>
+        <v>0.61864406779661</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>97</v>
+        <v>98.5</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>-3.67598552154747</v>
+        <v>-3.30216988216308</v>
       </c>
       <c r="M17">
-        <v>4.41405613575678</v>
+        <v>4.98137194054164</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1761,19 +1767,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1790,16 +1796,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18">
-        <v>0.323741925419765</v>
+        <v>0.08646755204660379</v>
       </c>
       <c r="G18">
-        <v>0.8378378378378381</v>
+        <v>0.81981981981982</v>
       </c>
       <c r="H18">
-        <v>0.342342342342342</v>
+        <v>0.36036036036036</v>
       </c>
       <c r="I18">
         <v>22</v>
@@ -1823,7 +1829,7 @@
         <v>42</v>
       </c>
       <c r="P18" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q18">
         <v>1838919.773</v>
@@ -1832,19 +1838,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1861,16 +1867,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19">
-        <v>0.916229876663704</v>
+        <v>0.998920341645119</v>
       </c>
       <c r="G19">
-        <v>0.491525423728814</v>
+        <v>0.593220338983051</v>
       </c>
       <c r="H19">
-        <v>0.0847457627118644</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1894,7 +1900,7 @@
         <v>42</v>
       </c>
       <c r="P19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q19">
         <v>1838919.773</v>
@@ -1903,19 +1909,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1932,22 +1938,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20">
-        <v>0.22989791152166</v>
+        <v>0.485603008292755</v>
       </c>
       <c r="G20">
-        <v>0.415254237288136</v>
+        <v>0.389830508474576</v>
       </c>
       <c r="H20">
-        <v>0.533898305084746</v>
+        <v>0.542372881355932</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1965,7 +1971,7 @@
         <v>42</v>
       </c>
       <c r="P20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q20">
         <v>1838919.773</v>
@@ -1974,19 +1980,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2006,37 +2012,37 @@
         <v>39</v>
       </c>
       <c r="F21">
-        <v>0.091874701399269</v>
+        <v>0.013307928021695</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.646551724137931</v>
+        <v>0.655172413793103</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.154999999999999</v>
+        <v>8.135</v>
       </c>
       <c r="K21">
-        <v>-0.0138523693943597</v>
+        <v>-0.0240352539714946</v>
       </c>
       <c r="L21">
-        <v>-0.0315986106596545</v>
+        <v>-0.0431638029381578</v>
       </c>
       <c r="M21">
-        <v>0.0028275967967924</v>
+        <v>-0.0058527606600028</v>
       </c>
       <c r="N21">
-        <v>-0.169863511886692</v>
+        <v>-0.295454873650825</v>
       </c>
       <c r="O21" t="s">
         <v>42</v>
       </c>
       <c r="P21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q21">
         <v>1838919.773</v>
@@ -2045,16 +2051,16 @@
         <v>5606540.511</v>
       </c>
       <c r="S21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2071,40 +2077,40 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F22">
-        <v>0.0835506804250756</v>
+        <v>0.0274825135690803</v>
       </c>
       <c r="G22">
         <v>0.110169491525424</v>
       </c>
       <c r="H22">
-        <v>0.6610169491525421</v>
+        <v>0.644067796610169</v>
       </c>
       <c r="I22">
         <v>3</v>
       </c>
       <c r="J22">
-        <v>0.0245</v>
+        <v>0.02935</v>
       </c>
       <c r="K22">
-        <v>0.000592061540179</v>
+        <v>0.0009976818774364001</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.0018842609607743</v>
+        <v>0.0020068681318681</v>
       </c>
       <c r="N22">
-        <v>2.41657771501667</v>
+        <v>3.39925682261131</v>
       </c>
       <c r="O22" t="s">
         <v>42</v>
       </c>
       <c r="P22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q22">
         <v>1838919.773</v>
@@ -2113,19 +2119,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2142,40 +2148,40 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F23">
-        <v>0.0968493448546662</v>
+        <v>0.374916765822482</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.5169491525423729</v>
+        <v>0.440677966101695</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.255</v>
+        <v>0.26</v>
       </c>
       <c r="K23">
-        <v>0.0033234758871701</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>-0.0012521681264938</v>
+        <v>-0.0033249150697998</v>
       </c>
       <c r="M23">
-        <v>0.0080026256637852</v>
+        <v>0.0049995971465683</v>
       </c>
       <c r="N23">
-        <v>1.30332387732163</v>
+        <v>0</v>
       </c>
       <c r="O23" t="s">
         <v>42</v>
       </c>
       <c r="P23" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q23">
         <v>1838919.773</v>
@@ -2184,19 +2190,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2216,37 +2222,37 @@
         <v>39</v>
       </c>
       <c r="F24">
-        <v>0.0008863200508279</v>
+        <v>0.0657286553310146</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.372881355932203</v>
+        <v>0.398305084745763</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.024</v>
+        <v>0.0255</v>
       </c>
       <c r="K24">
-        <v>0.0010004565689026</v>
+        <v>0.0005013729197756</v>
       </c>
       <c r="L24">
-        <v>0.0005526396367003</v>
+        <v>-8.72538178401824E-06</v>
       </c>
       <c r="M24">
-        <v>0.0014908163265306</v>
+        <v>0.001000900997336</v>
       </c>
       <c r="N24">
-        <v>4.16856903709447</v>
+        <v>1.96616831284587</v>
       </c>
       <c r="O24" t="s">
         <v>42</v>
       </c>
       <c r="P24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q24">
         <v>1838919.773</v>
@@ -2255,19 +2261,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2287,37 +2293,37 @@
         <v>39</v>
       </c>
       <c r="F25">
-        <v>0.019675634709264</v>
+        <v>0.11735123897758</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.915254237288136</v>
+        <v>0.923728813559322</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.37</v>
+        <v>3.44</v>
       </c>
       <c r="K25">
-        <v>0.156526247926602</v>
+        <v>0.12850205314855</v>
       </c>
       <c r="L25">
-        <v>0.0381204375229985</v>
+        <v>-0.0502398399462306</v>
       </c>
       <c r="M25">
-        <v>0.26191151571556</v>
+        <v>0.226861967096606</v>
       </c>
       <c r="N25">
-        <v>4.64469578417216</v>
+        <v>3.73552480082994</v>
       </c>
       <c r="O25" t="s">
         <v>42</v>
       </c>
       <c r="P25" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Q25">
         <v>1838919.773</v>
@@ -2326,19 +2332,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2355,16 +2361,16 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26">
-        <v>0.382541248567223</v>
+        <v>0.151853402217406</v>
       </c>
       <c r="G26">
-        <v>0.0451612903225806</v>
+        <v>0.0463576158940397</v>
       </c>
       <c r="H26">
-        <v>0.406451612903226</v>
+        <v>0.417218543046358</v>
       </c>
       <c r="I26">
         <v>3</v>
@@ -2373,22 +2379,22 @@
         <v>1.1</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>-0.015051510989011</v>
       </c>
       <c r="L26">
-        <v>-0.0333054711246201</v>
+        <v>-0.0401170531417727</v>
       </c>
       <c r="M26">
-        <v>0.0200686813186813</v>
+        <v>0.0060190605277794</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>-1.36831918081918</v>
       </c>
       <c r="O26" t="s">
         <v>42</v>
       </c>
       <c r="P26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q26">
         <v>1838919.773</v>
@@ -2397,19 +2403,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2429,7 +2435,7 @@
         <v>39</v>
       </c>
       <c r="F27">
-        <v>0.694749114266314</v>
+        <v>0.759293770167711</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2441,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>10.48</v>
+        <v>10.445</v>
       </c>
       <c r="K27">
-        <v>0.0055509118541032</v>
+        <v>0.0076959544879898</v>
       </c>
       <c r="L27">
-        <v>-0.0168871764441669</v>
+        <v>-0.0108816444376722</v>
       </c>
       <c r="M27">
-        <v>0.0231043952406029</v>
+        <v>0.0246669661214144</v>
       </c>
       <c r="N27">
-        <v>0.0529667161651071</v>
+        <v>0.0736807514407837</v>
       </c>
       <c r="O27" t="s">
         <v>42</v>
       </c>
       <c r="P27" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="Q27">
         <v>1838919.773</v>
@@ -2468,19 +2474,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2497,13 +2503,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F28">
-        <v>8.351449746309631E-09</v>
+        <v>1.62195071876375E-06</v>
       </c>
       <c r="G28">
-        <v>0.235955056179775</v>
+        <v>0.191011235955056</v>
       </c>
       <c r="H28">
         <v>0.123595505617978</v>
@@ -2512,25 +2518,25 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K28">
-        <v>0.0004530031892274</v>
+        <v>0.0003674547283702</v>
       </c>
       <c r="L28">
-        <v>0.0003136228588685</v>
+        <v>0.0002329400510204</v>
       </c>
       <c r="M28">
-        <v>0.0006158630301148</v>
+        <v>0.0005068879136099</v>
       </c>
       <c r="N28">
-        <v>5.66253986534373</v>
+        <v>4.08283031522468</v>
       </c>
       <c r="O28" t="s">
         <v>42</v>
       </c>
       <c r="P28" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q28">
         <v>1838919.773</v>
@@ -2539,19 +2545,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2571,37 +2577,37 @@
         <v>39</v>
       </c>
       <c r="F29">
-        <v>0.911503763080266</v>
+        <v>0.925687183697947</v>
       </c>
       <c r="G29">
         <v>0.0056179775280898</v>
       </c>
       <c r="H29">
-        <v>0.640449438202247</v>
+        <v>0.668539325842697</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="K29">
-        <v>-2.0792220113852</v>
+        <v>-2.23394495412844</v>
       </c>
       <c r="L29">
-        <v>-4.96938775510204</v>
+        <v>-5.1567026566288</v>
       </c>
       <c r="M29">
-        <v>0.364325125387408</v>
+        <v>0.154305352553132</v>
       </c>
       <c r="N29">
-        <v>-2.00891015592773</v>
+        <v>-2.16048835022093</v>
       </c>
       <c r="O29" t="s">
         <v>42</v>
       </c>
       <c r="P29" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Q29">
         <v>1838919.773</v>
@@ -2610,19 +2616,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2639,16 +2645,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F30">
-        <v>0.95264094434209</v>
+        <v>0.979177156148956</v>
       </c>
       <c r="G30">
-        <v>0.752941176470588</v>
+        <v>0.729411764705882</v>
       </c>
       <c r="H30">
-        <v>0.370588235294118</v>
+        <v>0.394117647058824</v>
       </c>
       <c r="I30">
         <v>25</v>
@@ -2672,7 +2678,7 @@
         <v>42</v>
       </c>
       <c r="P30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q30">
         <v>1838919.773</v>
@@ -2681,19 +2687,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2707,19 +2713,19 @@
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31">
-        <v>0.766615068736515</v>
+        <v>0.972454205703169</v>
       </c>
       <c r="G31">
-        <v>0.529761904761905</v>
+        <v>0.561797752808989</v>
       </c>
       <c r="H31">
-        <v>0.0714285714285714</v>
+        <v>0.06741573033707859</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -2743,7 +2749,7 @@
         <v>42</v>
       </c>
       <c r="P31" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="Q31">
         <v>1838919.773</v>
@@ -2752,19 +2758,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2781,16 +2787,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32">
-        <v>0.706576553163763</v>
+        <v>0.562041913372003</v>
       </c>
       <c r="G32">
-        <v>0.392857142857143</v>
+        <v>0.393258426966292</v>
       </c>
       <c r="H32">
-        <v>0.505952380952381</v>
+        <v>0.50561797752809</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -2814,7 +2820,7 @@
         <v>42</v>
       </c>
       <c r="P32" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q32">
         <v>1838919.773</v>
@@ -2823,19 +2829,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2852,16 +2858,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33">
-        <v>0.558471686977464</v>
+        <v>0.005381946224795</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.5344827586206899</v>
+        <v>0.514285714285714</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2870,22 +2876,22 @@
         <v>8.16</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>-0.0139142857142858</v>
       </c>
       <c r="L33">
-        <v>-0.0088262652768255</v>
+        <v>-0.0234256913762184</v>
       </c>
       <c r="M33">
-        <v>0.0106733653524793</v>
+        <v>-0.0050370502536383</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>-0.170518207282914</v>
       </c>
       <c r="O33" t="s">
         <v>42</v>
       </c>
       <c r="P33" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Q33">
         <v>1838919.773</v>
@@ -2894,16 +2900,16 @@
         <v>5606540.511</v>
       </c>
       <c r="S33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2920,34 +2926,34 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F34">
-        <v>0.773633513879147</v>
+        <v>0.240659146070458</v>
       </c>
       <c r="G34">
-        <v>0.0898876404494382</v>
+        <v>0.0730337078651685</v>
       </c>
       <c r="H34">
-        <v>0.668539325842697</v>
+        <v>0.6741573033707861</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J34">
-        <v>0.03035</v>
+        <v>0.0305</v>
       </c>
       <c r="K34">
-        <v>-0.0001874703412264</v>
+        <v>0.0001583215623475</v>
       </c>
       <c r="L34">
-        <v>-0.0005017170329669999</v>
+        <v>-0.000333116405026</v>
       </c>
       <c r="M34">
-        <v>0.0001590335670249</v>
+        <v>0.0007447294909979</v>
       </c>
       <c r="N34">
-        <v>-0.617694699263572</v>
+        <v>0.519087089664048</v>
       </c>
       <c r="O34" t="s">
         <v>42</v>
@@ -2962,19 +2968,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2991,31 +2997,31 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F35">
-        <v>0.5</v>
+        <v>0.447913223981604</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.51123595505618</v>
+        <v>0.50561797752809</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.26</v>
+        <v>0.2575</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>-0.0033234758871701</v>
+        <v>-0.0025150142052871</v>
       </c>
       <c r="M35">
-        <v>0.0021640608063539</v>
+        <v>0.0025069695629266</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -3033,19 +3039,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3065,13 +3071,13 @@
         <v>39</v>
       </c>
       <c r="F36">
-        <v>0.0652240300780326</v>
+        <v>0.0100088180277329</v>
       </c>
       <c r="G36">
-        <v>0.0112359550561798</v>
+        <v>0.0056179775280898</v>
       </c>
       <c r="H36">
-        <v>0.331460674157303</v>
+        <v>0.337078651685393</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -3080,22 +3086,22 @@
         <v>0.024</v>
       </c>
       <c r="K36">
-        <v>0.0003880617855563</v>
+        <v>0.0005005138746145</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>0.0001817809771188</v>
       </c>
       <c r="M36">
-        <v>0.000748974709501</v>
+        <v>0.000799671592775</v>
       </c>
       <c r="N36">
-        <v>1.61692410648499</v>
+        <v>2.08547447756081</v>
       </c>
       <c r="O36" t="s">
         <v>42</v>
       </c>
       <c r="P36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q36">
         <v>1838919.773</v>
@@ -3104,19 +3110,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3133,40 +3139,40 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F37">
-        <v>0.494208081152578</v>
+        <v>0.24749973273033</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.8764044943820229</v>
+        <v>0.865168539325843</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>3.41</v>
+        <v>3.37</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>0.0296594405326802</v>
       </c>
       <c r="L37">
-        <v>-0.0571564882093141</v>
+        <v>-0.0364550343717234</v>
       </c>
       <c r="M37">
-        <v>0.079286758088672</v>
+        <v>0.106156557755868</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>0.88010209295787</v>
       </c>
       <c r="O37" t="s">
         <v>42</v>
       </c>
       <c r="P37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q37">
         <v>1838919.773</v>
@@ -3175,19 +3181,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3195,49 +3201,49 @@
         <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
         <v>39</v>
       </c>
       <c r="F38">
-        <v>0.110335680959923</v>
+        <v>0.0692872183207081</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>0.0382513661202186</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0.420765027322404</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38">
-        <v>0.315</v>
+        <v>1.1</v>
       </c>
       <c r="K38">
-        <v>-0.0511636250249799</v>
+        <v>-0.0147143380333272</v>
       </c>
       <c r="L38">
-        <v>-0.171506786541965</v>
+        <v>-0.031203360135008</v>
       </c>
       <c r="M38">
-        <v>0.0161472613969129</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>-16.2424206428508</v>
+        <v>-1.33766709393884</v>
       </c>
       <c r="O38" t="s">
         <v>42</v>
       </c>
       <c r="P38" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q38">
         <v>1838919.773</v>
@@ -3246,16 +3252,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V38" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="W38" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3263,49 +3272,49 @@
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
         <v>39</v>
       </c>
       <c r="F39">
-        <v>0.231216363225238</v>
+        <v>0.299577400593309</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>94.44</v>
+        <v>10.56</v>
       </c>
       <c r="K39">
-        <v>-3.3875764238483</v>
+        <v>-0.0050161859917598</v>
       </c>
       <c r="L39">
-        <v>-15.4541512293949</v>
+        <v>-0.0247901381263774</v>
       </c>
       <c r="M39">
-        <v>1.96010518163611</v>
+        <v>0.010026079977204</v>
       </c>
       <c r="N39">
-        <v>-3.58701442593001</v>
+        <v>-0.0475017612856049</v>
       </c>
       <c r="O39" t="s">
         <v>42</v>
       </c>
       <c r="P39" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q39">
         <v>1838919.773</v>
@@ -3314,16 +3323,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V39" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="W39" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3331,43 +3343,43 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F40">
-        <v>0.110335680959923</v>
+        <v>1.16525062418708E-08</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>0.252336448598131</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0.121495327102804</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>4.189</v>
+        <v>0.008</v>
       </c>
       <c r="K40">
-        <v>-0.489824384349182</v>
+        <v>0.0003338665447897</v>
       </c>
       <c r="L40">
-        <v>-1.66757758492705</v>
+        <v>0.0002285949509309</v>
       </c>
       <c r="M40">
-        <v>0.081564294713283</v>
+        <v>0.000441769488217</v>
       </c>
       <c r="N40">
-        <v>-11.6931101539552</v>
+        <v>4.17333180987203</v>
       </c>
       <c r="O40" t="s">
         <v>42</v>
@@ -3382,16 +3394,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V40" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="W40" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3399,10 +3414,10 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -3411,37 +3426,37 @@
         <v>39</v>
       </c>
       <c r="F41">
-        <v>0.024548990804633</v>
+        <v>0.943782818433387</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>0.0093457943925233</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0.672897196261682</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41">
-        <v>0.4325</v>
+        <v>110</v>
       </c>
       <c r="K41">
-        <v>-0.0275844069302532</v>
+        <v>-1.94596500391747</v>
       </c>
       <c r="L41">
-        <v>-0.0518810291794004</v>
+        <v>-4.19104991394148</v>
       </c>
       <c r="M41">
-        <v>-0.0108653879099241</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>-6.37789755612791</v>
+        <v>-1.76905909447043</v>
       </c>
       <c r="O41" t="s">
         <v>42</v>
       </c>
       <c r="P41" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="Q41">
         <v>1838919.773</v>
@@ -3450,16 +3465,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V41" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="W41" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3467,49 +3485,49 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F42">
-        <v>0.0439807371540401</v>
+        <v>0.692843313307937</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>0.760975609756098</v>
       </c>
       <c r="H42">
-        <v>0.9</v>
+        <v>0.375609756097561</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J42">
-        <v>96.47499999999999</v>
+        <v>0.005</v>
       </c>
       <c r="K42">
-        <v>-1.21191513761468</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>-2.81105853751569</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>-0.100459670903761</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>-1.25619604831789</v>
+        <v>0</v>
       </c>
       <c r="O42" t="s">
         <v>42</v>
       </c>
       <c r="P42" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q42">
         <v>1838919.773</v>
@@ -3518,16 +3536,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V42" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="W42" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3535,49 +3556,49 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F43">
-        <v>0.036819135060151</v>
+        <v>0.826808421081754</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>0.38974358974359</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0.497435897435897</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43">
-        <v>5.099</v>
+        <v>0.024</v>
       </c>
       <c r="K43">
-        <v>-0.170311253561253</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>-0.451221741751463</v>
+        <v>-0.0003856291723716</v>
       </c>
       <c r="M43">
-        <v>-0.0469799900330457</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>-3.34009126419403</v>
+        <v>0</v>
       </c>
       <c r="O43" t="s">
         <v>42</v>
       </c>
       <c r="P43" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q43">
         <v>1838919.773</v>
@@ -3586,16 +3607,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V43" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="W43" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3603,10 +3627,10 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -3615,37 +3639,37 @@
         <v>39</v>
       </c>
       <c r="F44">
-        <v>0.330707958503932</v>
+        <v>0.120789870602877</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.4195</v>
+        <v>8.15</v>
       </c>
       <c r="K44">
-        <v>-0.0052437879624516</v>
+        <v>-0.0053420631884257</v>
       </c>
       <c r="L44">
-        <v>-0.0198699171924116</v>
+        <v>-0.012726480836237</v>
       </c>
       <c r="M44">
-        <v>0.0101270206610085</v>
+        <v>0.0019991789819375</v>
       </c>
       <c r="N44">
-        <v>-1.25000904945213</v>
+        <v>-0.0655467875880454</v>
       </c>
       <c r="O44" t="s">
         <v>42</v>
       </c>
       <c r="P44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q44">
         <v>1838919.773</v>
@@ -3654,16 +3678,16 @@
         <v>5606540.511</v>
       </c>
       <c r="S44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T44" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3671,49 +3695,49 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F45">
-        <v>0.327426818596892</v>
+        <v>0.459630402297424</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>0.121495327102804</v>
       </c>
       <c r="H45">
-        <v>0.8</v>
+        <v>0.626168224299065</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J45">
-        <v>97.78</v>
+        <v>0.03225</v>
       </c>
       <c r="K45">
-        <v>-0.312705263157894</v>
+        <v>-0.0002039649802759</v>
       </c>
       <c r="L45">
-        <v>-0.927667946925387</v>
+        <v>-0.0005002411386769001</v>
       </c>
       <c r="M45">
-        <v>0.50530701283104</v>
+        <v>0.0001430489429916</v>
       </c>
       <c r="N45">
-        <v>-0.319804932663013</v>
+        <v>-0.632449551243316</v>
       </c>
       <c r="O45" t="s">
         <v>42</v>
       </c>
       <c r="P45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q45">
         <v>1838919.773</v>
@@ -3722,16 +3746,19 @@
         <v>5606540.511</v>
       </c>
       <c r="S45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V45" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="W45" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3739,67 +3766,824 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
         <v>39</v>
       </c>
       <c r="F46">
+        <v>0.063992394821727</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0.434579439252336</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.25</v>
+      </c>
+      <c r="K46">
+        <v>0.0014315135696006</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0.0028591135178063</v>
+      </c>
+      <c r="N46">
+        <v>0.572605427840261</v>
+      </c>
+      <c r="O46" t="s">
+        <v>42</v>
+      </c>
+      <c r="P46" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q46">
+        <v>1838919.773</v>
+      </c>
+      <c r="R46">
+        <v>5606540.511</v>
+      </c>
+      <c r="S46" t="s">
+        <v>58</v>
+      </c>
+      <c r="T46" t="s">
+        <v>59</v>
+      </c>
+      <c r="U46" t="s">
+        <v>60</v>
+      </c>
+      <c r="V46" t="s">
+        <v>61</v>
+      </c>
+      <c r="W46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47">
+        <v>0.008485913211709099</v>
+      </c>
+      <c r="G47">
+        <v>0.0093457943925233</v>
+      </c>
+      <c r="H47">
+        <v>0.299065420560748</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0.024</v>
+      </c>
+      <c r="K47">
+        <v>0.0003339047009663</v>
+      </c>
+      <c r="L47">
+        <v>0.0001172383118713</v>
+      </c>
+      <c r="M47">
+        <v>0.0005996516350992</v>
+      </c>
+      <c r="N47">
+        <v>1.39126958735962</v>
+      </c>
+      <c r="O47" t="s">
+        <v>42</v>
+      </c>
+      <c r="P47" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q47">
+        <v>1838919.773</v>
+      </c>
+      <c r="R47">
+        <v>5606540.511</v>
+      </c>
+      <c r="S47" t="s">
+        <v>58</v>
+      </c>
+      <c r="T47" t="s">
+        <v>59</v>
+      </c>
+      <c r="U47" t="s">
+        <v>60</v>
+      </c>
+      <c r="V47" t="s">
+        <v>61</v>
+      </c>
+      <c r="W47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48">
+        <v>0.148749635699276</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0.85981308411215</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>3.245</v>
+      </c>
+      <c r="K48">
+        <v>0.0335254869925265</v>
+      </c>
+      <c r="L48">
+        <v>-0.014727676744292</v>
+      </c>
+      <c r="M48">
+        <v>0.0854809106988598</v>
+      </c>
+      <c r="N48">
+        <v>1.03314289653394</v>
+      </c>
+      <c r="O48" t="s">
+        <v>42</v>
+      </c>
+      <c r="P48" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q48">
+        <v>1838919.773</v>
+      </c>
+      <c r="R48">
+        <v>5606540.511</v>
+      </c>
+      <c r="S48" t="s">
+        <v>58</v>
+      </c>
+      <c r="T48" t="s">
+        <v>59</v>
+      </c>
+      <c r="U48" t="s">
+        <v>60</v>
+      </c>
+      <c r="V48" t="s">
+        <v>61</v>
+      </c>
+      <c r="W48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49">
         <v>0.5</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>4.864</v>
-      </c>
-      <c r="K46">
-        <v>-0.0050588642659278</v>
-      </c>
-      <c r="L46">
-        <v>-0.149219085744869</v>
-      </c>
-      <c r="M46">
-        <v>0.144524479018946</v>
-      </c>
-      <c r="N46">
-        <v>-0.104006255467267</v>
-      </c>
-      <c r="O46" t="s">
-        <v>42</v>
-      </c>
-      <c r="P46" t="s">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.315</v>
+      </c>
+      <c r="K49">
+        <v>0.0018393595582503</v>
+      </c>
+      <c r="L49">
+        <v>-0.121971426312933</v>
+      </c>
+      <c r="M49">
+        <v>0.08613773938954609</v>
+      </c>
+      <c r="N49">
+        <v>0.583923669285811</v>
+      </c>
+      <c r="O49" t="s">
+        <v>42</v>
+      </c>
+      <c r="P49" t="s">
         <v>46</v>
       </c>
-      <c r="Q46">
-        <v>1838919.773</v>
-      </c>
-      <c r="R46">
-        <v>5606540.511</v>
-      </c>
-      <c r="S46" t="s">
-        <v>56</v>
-      </c>
-      <c r="T46" t="s">
-        <v>57</v>
-      </c>
-      <c r="U46" t="s">
-        <v>58</v>
-      </c>
-      <c r="V46" t="s">
-        <v>59</v>
+      <c r="Q49">
+        <v>1838919.773</v>
+      </c>
+      <c r="R49">
+        <v>5606540.511</v>
+      </c>
+      <c r="S49" t="s">
+        <v>58</v>
+      </c>
+      <c r="T49" t="s">
+        <v>59</v>
+      </c>
+      <c r="U49" t="s">
+        <v>60</v>
+      </c>
+      <c r="V49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>94.44</v>
+      </c>
+      <c r="K50">
+        <v>3.73622085827109</v>
+      </c>
+      <c r="L50">
+        <v>-11.878912212353</v>
+      </c>
+      <c r="M50">
+        <v>13.6371790718993</v>
+      </c>
+      <c r="N50">
+        <v>3.95618472921547</v>
+      </c>
+      <c r="O50" t="s">
+        <v>42</v>
+      </c>
+      <c r="P50" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q50">
+        <v>1838919.773</v>
+      </c>
+      <c r="R50">
+        <v>5606540.511</v>
+      </c>
+      <c r="S50" t="s">
+        <v>58</v>
+      </c>
+      <c r="T50" t="s">
+        <v>59</v>
+      </c>
+      <c r="U50" t="s">
+        <v>60</v>
+      </c>
+      <c r="V50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>4.181</v>
+      </c>
+      <c r="K51">
+        <v>-0.0712502132055761</v>
+      </c>
+      <c r="L51">
+        <v>-1.13227974432817</v>
+      </c>
+      <c r="M51">
+        <v>0.522845739134865</v>
+      </c>
+      <c r="N51">
+        <v>-1.70414286547659</v>
+      </c>
+      <c r="O51" t="s">
+        <v>42</v>
+      </c>
+      <c r="P51" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q51">
+        <v>1838919.773</v>
+      </c>
+      <c r="R51">
+        <v>5606540.511</v>
+      </c>
+      <c r="S51" t="s">
+        <v>58</v>
+      </c>
+      <c r="T51" t="s">
+        <v>59</v>
+      </c>
+      <c r="U51" t="s">
+        <v>60</v>
+      </c>
+      <c r="V51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52">
+        <v>0.036819135060151</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.413</v>
+      </c>
+      <c r="K52">
+        <v>-0.0222030394304491</v>
+      </c>
+      <c r="L52">
+        <v>-0.0503810952894556</v>
+      </c>
+      <c r="M52">
+        <v>-0.0072407351164587</v>
+      </c>
+      <c r="N52">
+        <v>-5.3760386030143</v>
+      </c>
+      <c r="O52" t="s">
+        <v>42</v>
+      </c>
+      <c r="P52" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q52">
+        <v>1838919.773</v>
+      </c>
+      <c r="R52">
+        <v>5606540.511</v>
+      </c>
+      <c r="S52" t="s">
+        <v>58</v>
+      </c>
+      <c r="T52" t="s">
+        <v>59</v>
+      </c>
+      <c r="U52" t="s">
+        <v>60</v>
+      </c>
+      <c r="V52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53">
+        <v>0.360257393568128</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>96.47499999999999</v>
+      </c>
+      <c r="K53">
+        <v>-0.312705263157894</v>
+      </c>
+      <c r="L53">
+        <v>-2.33070392481676</v>
+      </c>
+      <c r="M53">
+        <v>0.874507617739844</v>
+      </c>
+      <c r="N53">
+        <v>-0.324130876556511</v>
+      </c>
+      <c r="O53" t="s">
+        <v>42</v>
+      </c>
+      <c r="P53" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q53">
+        <v>1838919.773</v>
+      </c>
+      <c r="R53">
+        <v>5606540.511</v>
+      </c>
+      <c r="S53" t="s">
+        <v>58</v>
+      </c>
+      <c r="T53" t="s">
+        <v>59</v>
+      </c>
+      <c r="U53" t="s">
+        <v>60</v>
+      </c>
+      <c r="V53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54">
+        <v>0.0100223343113141</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>4.915</v>
+      </c>
+      <c r="K54">
+        <v>-0.253887400793651</v>
+      </c>
+      <c r="L54">
+        <v>-0.50660325392068</v>
+      </c>
+      <c r="M54">
+        <v>-0.0840997609450149</v>
+      </c>
+      <c r="N54">
+        <v>-5.1655625797284</v>
+      </c>
+      <c r="O54" t="s">
+        <v>42</v>
+      </c>
+      <c r="P54" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q54">
+        <v>1838919.773</v>
+      </c>
+      <c r="R54">
+        <v>5606540.511</v>
+      </c>
+      <c r="S54" t="s">
+        <v>58</v>
+      </c>
+      <c r="T54" t="s">
+        <v>59</v>
+      </c>
+      <c r="U54" t="s">
+        <v>60</v>
+      </c>
+      <c r="V54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55">
+        <v>15</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55">
+        <v>0.276307562531424</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.413</v>
+      </c>
+      <c r="K55">
+        <v>-0.0061515789473684</v>
+      </c>
+      <c r="L55">
+        <v>-0.0174725724072767</v>
+      </c>
+      <c r="M55">
+        <v>0.0073712252021466</v>
+      </c>
+      <c r="N55">
+        <v>-1.48948642793424</v>
+      </c>
+      <c r="O55" t="s">
+        <v>42</v>
+      </c>
+      <c r="P55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q55">
+        <v>1838919.773</v>
+      </c>
+      <c r="R55">
+        <v>5606540.511</v>
+      </c>
+      <c r="S55" t="s">
+        <v>58</v>
+      </c>
+      <c r="T55" t="s">
+        <v>59</v>
+      </c>
+      <c r="U55" t="s">
+        <v>60</v>
+      </c>
+      <c r="V55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>39</v>
+      </c>
+      <c r="F56">
+        <v>0.364036599995385</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0.8</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>99</v>
+      </c>
+      <c r="K56">
+        <v>-0.143970032397409</v>
+      </c>
+      <c r="L56">
+        <v>-0.927667946925387</v>
+      </c>
+      <c r="M56">
+        <v>0.567297764508372</v>
+      </c>
+      <c r="N56">
+        <v>-0.145424275148898</v>
+      </c>
+      <c r="O56" t="s">
+        <v>42</v>
+      </c>
+      <c r="P56" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q56">
+        <v>1838919.773</v>
+      </c>
+      <c r="R56">
+        <v>5606540.511</v>
+      </c>
+      <c r="S56" t="s">
+        <v>58</v>
+      </c>
+      <c r="T56" t="s">
+        <v>59</v>
+      </c>
+      <c r="U56" t="s">
+        <v>60</v>
+      </c>
+      <c r="V56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57">
+        <v>15</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>39</v>
+      </c>
+      <c r="F57">
+        <v>0.421542614634992</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>4.68</v>
+      </c>
+      <c r="K57">
+        <v>-0.0206116182572614</v>
+      </c>
+      <c r="L57">
+        <v>-0.14477152015332</v>
+      </c>
+      <c r="M57">
+        <v>0.121729017402243</v>
+      </c>
+      <c r="N57">
+        <v>-0.440419193531226</v>
+      </c>
+      <c r="O57" t="s">
+        <v>42</v>
+      </c>
+      <c r="P57" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q57">
+        <v>1838919.773</v>
+      </c>
+      <c r="R57">
+        <v>5606540.511</v>
+      </c>
+      <c r="S57" t="s">
+        <v>58</v>
+      </c>
+      <c r="T57" t="s">
+        <v>59</v>
+      </c>
+      <c r="U57" t="s">
+        <v>60</v>
+      </c>
+      <c r="V57" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
